--- a/data/Статистические_данные_показателей_СЭР.xlsx
+++ b/data/Статистические_данные_показателей_СЭР.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anastasiya.gotfrid\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66510DFF-9DB9-4390-81A7-028D502E70D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{94245B0B-3E45-426E-9011-79362D59AA4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Прогнозируемые показатели" sheetId="1" r:id="rId1"/>
     <sheet name="Сценарка" sheetId="3" r:id="rId2"/>
-    <sheet name="для загрузки" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="Сценарка2" sheetId="4" r:id="rId3"/>
+    <sheet name="для загрузки" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Прогнозируемые показатели'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Прогнозируемые показатели'!$A$1:$O$49</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="109">
   <si>
     <t>Темп роста фонда заработной платы работников организаций</t>
   </si>
@@ -373,7 +368,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -834,36 +829,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF3DAA44-884C-44A4-A9E8-B98AACC96146}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.54296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="15" width="9.7109375" style="1" customWidth="1"/>
+    <col min="6" max="15" width="9.7265625" style="1" customWidth="1"/>
     <col min="16" max="18" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.42578125" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="26" max="26" width="10.453125" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -949,7 +944,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:63" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:63" s="2" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>46</v>
       </c>
@@ -1032,7 +1027,7 @@
         <v>1711684.7</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:63" s="2" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>45</v>
       </c>
@@ -1111,7 +1106,7 @@
         <v>98.699999999999974</v>
       </c>
     </row>
-    <row r="4" spans="1:63" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:63" s="2" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>44</v>
       </c>
@@ -1190,7 +1185,7 @@
         <v>102.2</v>
       </c>
     </row>
-    <row r="5" spans="1:63" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:63" s="2" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>43</v>
       </c>
@@ -1273,7 +1268,7 @@
         <v>98.199999999999974</v>
       </c>
     </row>
-    <row r="6" spans="1:63" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:63" s="2" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>42</v>
       </c>
@@ -1356,7 +1351,7 @@
         <v>189571.6</v>
       </c>
     </row>
-    <row r="7" spans="1:63" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:63" s="2" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>41</v>
       </c>
@@ -1425,7 +1420,7 @@
         <v>103.1</v>
       </c>
     </row>
-    <row r="8" spans="1:63" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:63" s="2" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>40</v>
       </c>
@@ -1498,7 +1493,7 @@
         <v>86107.199999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:63" s="9" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:63" s="9" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>39</v>
       </c>
@@ -1617,7 +1612,7 @@
       <c r="BJ9" s="2"/>
       <c r="BK9" s="2"/>
     </row>
-    <row r="10" spans="1:63" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:63" s="2" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
@@ -1690,7 +1685,7 @@
         <v>103464.4</v>
       </c>
     </row>
-    <row r="11" spans="1:63" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:63" s="2" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>37</v>
       </c>
@@ -1846,7 +1841,7 @@
         <v>196195</v>
       </c>
     </row>
-    <row r="13" spans="1:63" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:63" s="2" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>35</v>
       </c>
@@ -1919,7 +1914,7 @@
         <v>105.1</v>
       </c>
     </row>
-    <row r="14" spans="1:63" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:63" s="2" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>34</v>
       </c>
@@ -2061,7 +2056,7 @@
         <v>105.02</v>
       </c>
     </row>
-    <row r="16" spans="1:63" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:63" s="2" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>32</v>
       </c>
@@ -2134,7 +2129,7 @@
         <v>912651.28999999969</v>
       </c>
     </row>
-    <row r="17" spans="1:27" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" s="2" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>31</v>
       </c>
@@ -2207,7 +2202,7 @@
         <v>97.59999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:27" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" s="2" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
@@ -2280,7 +2275,7 @@
         <v>103.5</v>
       </c>
     </row>
-    <row r="19" spans="1:27" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" s="2" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
@@ -2353,7 +2348,7 @@
         <v>221945</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" s="2" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>28</v>
       </c>
@@ -2426,7 +2421,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:27" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" s="2" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>27</v>
       </c>
@@ -2499,7 +2494,7 @@
         <v>3129.7</v>
       </c>
     </row>
-    <row r="22" spans="1:27" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" s="2" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
@@ -2572,7 +2567,7 @@
         <v>925.8</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" s="2" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>24</v>
       </c>
@@ -2645,7 +2640,7 @@
         <v>925.8</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" s="2" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>25</v>
       </c>
@@ -2718,7 +2713,7 @@
         <v>3129.7</v>
       </c>
     </row>
-    <row r="25" spans="1:27" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" s="2" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
@@ -2801,7 +2796,7 @@
         <v>365900.15499999997</v>
       </c>
     </row>
-    <row r="26" spans="1:27" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" s="2" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>22</v>
       </c>
@@ -2884,7 +2879,7 @@
         <v>100.9</v>
       </c>
     </row>
-    <row r="27" spans="1:27" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" s="2" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>21</v>
       </c>
@@ -2963,7 +2958,7 @@
         <v>107.4</v>
       </c>
     </row>
-    <row r="28" spans="1:27" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" s="2" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>20</v>
       </c>
@@ -3046,7 +3041,7 @@
         <v>20.02999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:27" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" s="2" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>19</v>
       </c>
@@ -3129,7 +3124,7 @@
         <v>117608.345</v>
       </c>
     </row>
-    <row r="30" spans="1:27" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" s="2" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -3204,7 +3199,7 @@
         <v>97627.04</v>
       </c>
     </row>
-    <row r="31" spans="1:27" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" s="2" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>17</v>
       </c>
@@ -3281,7 +3276,7 @@
         <v>27519.153999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:27" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" s="2" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>16</v>
       </c>
@@ -3364,7 +3359,7 @@
         <v>8530.5190000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:27" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" s="2" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>15</v>
       </c>
@@ -3520,7 +3515,7 @@
         <v>-37345.199999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:27" s="2" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" s="2" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>13</v>
       </c>
@@ -3591,7 +3586,7 @@
         <v>9800</v>
       </c>
     </row>
-    <row r="36" spans="1:27" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" s="2" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>12</v>
       </c>
@@ -3662,7 +3657,7 @@
         <v>10422</v>
       </c>
     </row>
-    <row r="37" spans="1:27" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" s="2" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
@@ -3733,7 +3728,7 @@
         <v>7984</v>
       </c>
     </row>
-    <row r="38" spans="1:27" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" s="2" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>10</v>
       </c>
@@ -3879,7 +3874,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="40" spans="1:27" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" s="2" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>8</v>
       </c>
@@ -3952,7 +3947,7 @@
         <v>1898.29</v>
       </c>
     </row>
-    <row r="41" spans="1:27" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" s="2" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>94</v>
       </c>
@@ -4033,7 +4028,7 @@
         <v>1588.93</v>
       </c>
     </row>
-    <row r="42" spans="1:27" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" s="2" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>7</v>
       </c>
@@ -4116,7 +4111,7 @@
         <v>38738.1</v>
       </c>
     </row>
-    <row r="43" spans="1:27" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>6</v>
       </c>
@@ -4199,7 +4194,7 @@
         <v>106.2</v>
       </c>
     </row>
-    <row r="44" spans="1:27" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" s="2" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>5</v>
       </c>
@@ -4282,7 +4277,7 @@
         <v>102.5</v>
       </c>
     </row>
-    <row r="45" spans="1:27" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" s="2" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>4</v>
       </c>
@@ -4363,7 +4358,7 @@
         <v>111.7</v>
       </c>
     </row>
-    <row r="46" spans="1:27" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" s="2" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>3</v>
       </c>
@@ -4444,7 +4439,7 @@
         <v>5.62</v>
       </c>
     </row>
-    <row r="47" spans="1:27" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" s="2" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>2</v>
       </c>
@@ -4517,7 +4512,7 @@
         <v>111.7</v>
       </c>
     </row>
-    <row r="48" spans="1:27" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" s="2" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>1</v>
       </c>
@@ -4594,7 +4589,7 @@
         <v>490288.63999999984</v>
       </c>
     </row>
-    <row r="49" spans="1:27" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27" s="2" customFormat="1" ht="9" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>0</v>
       </c>
@@ -4679,19 +4674,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE087186-493B-4E6E-A09A-80FF20D5529C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>95</v>
       </c>
@@ -4825,7 +4821,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -4908,7 +4904,7 @@
         <v>101.3</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>99</v>
       </c>
@@ -4967,7 +4963,7 @@
         <v>102.87512438109343</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>100</v>
       </c>
@@ -5047,7 +5043,7 @@
         <v>103.4</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>99</v>
       </c>
@@ -5106,7 +5102,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>101</v>
       </c>
@@ -5189,7 +5185,7 @@
         <v>103.08164024609432</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>99</v>
       </c>
@@ -5248,7 +5244,7 @@
         <v>102.5</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>102</v>
       </c>
@@ -5331,7 +5327,7 @@
         <v>101.3</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>99</v>
       </c>
@@ -5390,7 +5386,7 @@
         <v>102.6972</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -5449,7 +5445,7 @@
         <v>63.920850770076392</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>99</v>
       </c>
@@ -5508,7 +5504,7 @@
         <v>96.717793332508563</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>104</v>
       </c>
@@ -5591,7 +5587,7 @@
         <v>104.337</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>99</v>
       </c>
@@ -5650,7 +5646,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>105</v>
       </c>
@@ -5733,7 +5729,7 @@
         <v>102.9</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>99</v>
       </c>
@@ -5792,7 +5788,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -5854,7 +5850,7 @@
         <v>63.375</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>107</v>
       </c>
@@ -5916,7 +5912,7 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>108</v>
       </c>
@@ -5924,7 +5920,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>99</v>
       </c>
@@ -5989,16 +5985,708 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4F3ADB-8B1E-4E1B-851E-84398D964A3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T17" sqref="T17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1">
+        <v>1995</v>
+      </c>
+      <c r="C1">
+        <v>1996</v>
+      </c>
+      <c r="D1">
+        <v>1997</v>
+      </c>
+      <c r="E1">
+        <v>1998</v>
+      </c>
+      <c r="F1">
+        <v>1999</v>
+      </c>
+      <c r="G1">
+        <v>2000</v>
+      </c>
+      <c r="H1">
+        <v>2001</v>
+      </c>
+      <c r="I1">
+        <v>2002</v>
+      </c>
+      <c r="J1">
+        <v>2003</v>
+      </c>
+      <c r="K1">
+        <v>2004</v>
+      </c>
+      <c r="L1">
+        <v>2005</v>
+      </c>
+      <c r="M1">
+        <v>2006</v>
+      </c>
+      <c r="N1">
+        <v>2007</v>
+      </c>
+      <c r="O1">
+        <v>2008</v>
+      </c>
+      <c r="P1">
+        <v>2009</v>
+      </c>
+      <c r="Q1">
+        <v>2010</v>
+      </c>
+      <c r="R1">
+        <v>2011</v>
+      </c>
+      <c r="S1">
+        <v>2012</v>
+      </c>
+      <c r="T1">
+        <v>2013</v>
+      </c>
+      <c r="U1">
+        <v>2014</v>
+      </c>
+      <c r="V1">
+        <v>2015</v>
+      </c>
+      <c r="W1">
+        <v>2016</v>
+      </c>
+      <c r="X1">
+        <v>2017</v>
+      </c>
+      <c r="Y1">
+        <v>2018</v>
+      </c>
+      <c r="Z1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2">
+        <v>96</v>
+      </c>
+      <c r="C2">
+        <v>96.392233314452753</v>
+      </c>
+      <c r="D2">
+        <v>101.38114528783284</v>
+      </c>
+      <c r="E2">
+        <v>94.655135880876671</v>
+      </c>
+      <c r="F2">
+        <v>106.35109999827669</v>
+      </c>
+      <c r="G2">
+        <v>110.04565721819498</v>
+      </c>
+      <c r="H2">
+        <v>105.09111918167025</v>
+      </c>
+      <c r="I2">
+        <v>104.74378229675641</v>
+      </c>
+      <c r="J2">
+        <v>107.29585433062172</v>
+      </c>
+      <c r="K2">
+        <v>107.17594919269399</v>
+      </c>
+      <c r="L2">
+        <v>106.37618702701531</v>
+      </c>
+      <c r="M2">
+        <v>108.15343197291236</v>
+      </c>
+      <c r="N2">
+        <v>108.53508020907742</v>
+      </c>
+      <c r="O2">
+        <v>105.24795353217802</v>
+      </c>
+      <c r="P2">
+        <v>92.179114973159642</v>
+      </c>
+      <c r="Q2">
+        <v>104.50372562559468</v>
+      </c>
+      <c r="R2">
+        <v>104.26417656499514</v>
+      </c>
+      <c r="S2">
+        <v>103.65590157306383</v>
+      </c>
+      <c r="T2">
+        <v>101.78535450091057</v>
+      </c>
+      <c r="U2">
+        <v>100.73860077330102</v>
+      </c>
+      <c r="V2">
+        <v>97.461683207383771</v>
+      </c>
+      <c r="W2">
+        <v>99.827362679571195</v>
+      </c>
+      <c r="X2">
+        <v>101.54563022906183</v>
+      </c>
+      <c r="Y2">
+        <v>101.80120422244214</v>
+      </c>
+      <c r="Z2">
+        <v>101.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>145.81321413447134</v>
+      </c>
+      <c r="D3">
+        <v>115.07980649585134</v>
+      </c>
+      <c r="E3">
+        <v>118.59519984363014</v>
+      </c>
+      <c r="F3">
+        <v>172.46573016962017</v>
+      </c>
+      <c r="G3">
+        <v>137.6408818516382</v>
+      </c>
+      <c r="H3">
+        <v>116.48951934759999</v>
+      </c>
+      <c r="I3">
+        <v>115.61392620376863</v>
+      </c>
+      <c r="J3">
+        <v>113.780061468852</v>
+      </c>
+      <c r="K3">
+        <v>120.28207692821789</v>
+      </c>
+      <c r="L3">
+        <v>119.30609483586849</v>
+      </c>
+      <c r="M3">
+        <v>115.17004710509624</v>
+      </c>
+      <c r="N3">
+        <v>113.80442067974063</v>
+      </c>
+      <c r="O3">
+        <v>117.95971403731893</v>
+      </c>
+      <c r="P3">
+        <v>101.99372282320176</v>
+      </c>
+      <c r="Q3">
+        <v>114.18703858135449</v>
+      </c>
+      <c r="R3">
+        <v>115.91444760020681</v>
+      </c>
+      <c r="S3">
+        <v>109.08593113777675</v>
+      </c>
+      <c r="T3">
+        <v>105.40933847818816</v>
+      </c>
+      <c r="U3">
+        <v>107.50005591384846</v>
+      </c>
+      <c r="V3">
+        <v>108.02944161766655</v>
+      </c>
+      <c r="W3">
+        <v>103.4901711674809</v>
+      </c>
+      <c r="X3">
+        <v>105.20926662397694</v>
+      </c>
+      <c r="Y3">
+        <v>107.97190612685141</v>
+      </c>
+      <c r="Z3">
+        <v>103.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4">
+        <v>89.9</v>
+      </c>
+      <c r="C4">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="D4">
+        <v>95</v>
+      </c>
+      <c r="E4">
+        <v>88</v>
+      </c>
+      <c r="F4">
+        <v>105.3</v>
+      </c>
+      <c r="G4">
+        <v>117.4</v>
+      </c>
+      <c r="H4">
+        <v>111.7</v>
+      </c>
+      <c r="I4">
+        <v>102.9</v>
+      </c>
+      <c r="J4">
+        <v>112.7</v>
+      </c>
+      <c r="K4">
+        <v>116.8</v>
+      </c>
+      <c r="L4">
+        <v>110.2</v>
+      </c>
+      <c r="M4">
+        <v>117.8</v>
+      </c>
+      <c r="N4">
+        <v>123.8</v>
+      </c>
+      <c r="O4">
+        <v>109.5</v>
+      </c>
+      <c r="P4">
+        <v>86.5</v>
+      </c>
+      <c r="Q4">
+        <v>106.3</v>
+      </c>
+      <c r="R4">
+        <v>110.8</v>
+      </c>
+      <c r="S4">
+        <v>106.8</v>
+      </c>
+      <c r="T4">
+        <v>100.76767982575873</v>
+      </c>
+      <c r="U4">
+        <v>98.5</v>
+      </c>
+      <c r="V4">
+        <v>91.6</v>
+      </c>
+      <c r="W4">
+        <v>99.1</v>
+      </c>
+      <c r="X4">
+        <v>104.4</v>
+      </c>
+      <c r="Y4">
+        <v>103.48800362886405</v>
+      </c>
+      <c r="Z4">
+        <v>103.08164024609432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5">
+        <v>92</v>
+      </c>
+      <c r="C5">
+        <v>94.9</v>
+      </c>
+      <c r="D5">
+        <v>100.9</v>
+      </c>
+      <c r="E5">
+        <v>85.9</v>
+      </c>
+      <c r="F5">
+        <v>103.8</v>
+      </c>
+      <c r="G5">
+        <v>106.2</v>
+      </c>
+      <c r="H5">
+        <v>106.9</v>
+      </c>
+      <c r="I5">
+        <v>100.9</v>
+      </c>
+      <c r="J5">
+        <v>99.9</v>
+      </c>
+      <c r="K5">
+        <v>102.4</v>
+      </c>
+      <c r="L5">
+        <v>101.6</v>
+      </c>
+      <c r="M5">
+        <v>103</v>
+      </c>
+      <c r="N5">
+        <v>103.3</v>
+      </c>
+      <c r="O5">
+        <v>110.8</v>
+      </c>
+      <c r="P5">
+        <v>101.4</v>
+      </c>
+      <c r="Q5">
+        <v>88.7</v>
+      </c>
+      <c r="R5">
+        <v>123</v>
+      </c>
+      <c r="S5">
+        <v>95.2</v>
+      </c>
+      <c r="T5">
+        <v>105.8</v>
+      </c>
+      <c r="U5">
+        <v>103.5</v>
+      </c>
+      <c r="V5">
+        <v>102.6</v>
+      </c>
+      <c r="W5">
+        <v>104.8</v>
+      </c>
+      <c r="X5">
+        <v>102.4</v>
+      </c>
+      <c r="Y5">
+        <v>100.91216785923922</v>
+      </c>
+      <c r="Z5">
+        <v>101.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J6">
+        <v>30.6892</v>
+      </c>
+      <c r="K6">
+        <v>28.8063</v>
+      </c>
+      <c r="L6">
+        <v>28.297899999999998</v>
+      </c>
+      <c r="M6">
+        <v>27.17</v>
+      </c>
+      <c r="N6">
+        <v>25.577000000000002</v>
+      </c>
+      <c r="O6">
+        <v>24.8553</v>
+      </c>
+      <c r="P6">
+        <v>31.723099999999999</v>
+      </c>
+      <c r="Q6">
+        <v>30.369199999999999</v>
+      </c>
+      <c r="R6">
+        <v>29.3874</v>
+      </c>
+      <c r="S6">
+        <v>31.093</v>
+      </c>
+      <c r="T6">
+        <v>31.847999999999999</v>
+      </c>
+      <c r="U6">
+        <v>38.421700000000001</v>
+      </c>
+      <c r="V6">
+        <v>60.957900000000002</v>
+      </c>
+      <c r="W6">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="X6">
+        <v>59.374985727403839</v>
+      </c>
+      <c r="Y6">
+        <v>61.725930664260694</v>
+      </c>
+      <c r="Z6">
+        <v>63.920850770076392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7">
+        <v>231.3</v>
+      </c>
+      <c r="C7">
+        <v>121.8</v>
+      </c>
+      <c r="D7">
+        <v>111</v>
+      </c>
+      <c r="E7">
+        <v>184.4</v>
+      </c>
+      <c r="F7">
+        <v>136.5</v>
+      </c>
+      <c r="G7">
+        <v>120.2</v>
+      </c>
+      <c r="H7">
+        <v>118.6</v>
+      </c>
+      <c r="I7">
+        <v>115.1</v>
+      </c>
+      <c r="J7">
+        <v>112</v>
+      </c>
+      <c r="K7">
+        <v>111.7</v>
+      </c>
+      <c r="L7">
+        <v>110.9</v>
+      </c>
+      <c r="M7">
+        <v>109</v>
+      </c>
+      <c r="N7">
+        <v>111.9</v>
+      </c>
+      <c r="O7">
+        <v>113.3</v>
+      </c>
+      <c r="P7">
+        <v>108.8</v>
+      </c>
+      <c r="Q7">
+        <v>108.8</v>
+      </c>
+      <c r="R7">
+        <v>106.1</v>
+      </c>
+      <c r="S7">
+        <v>106.6</v>
+      </c>
+      <c r="T7">
+        <v>106.5</v>
+      </c>
+      <c r="U7">
+        <v>111.4</v>
+      </c>
+      <c r="V7">
+        <v>112.9</v>
+      </c>
+      <c r="W7">
+        <v>105.4</v>
+      </c>
+      <c r="X7">
+        <v>102.51</v>
+      </c>
+      <c r="Y7">
+        <v>103.41</v>
+      </c>
+      <c r="Z7">
+        <v>104.337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8">
+        <v>103.336</v>
+      </c>
+      <c r="C8">
+        <v>103.928</v>
+      </c>
+      <c r="D8">
+        <v>104.001</v>
+      </c>
+      <c r="E8">
+        <v>102.566</v>
+      </c>
+      <c r="F8">
+        <v>103.565</v>
+      </c>
+      <c r="G8">
+        <v>104.82300000000001</v>
+      </c>
+      <c r="H8">
+        <v>102.462</v>
+      </c>
+      <c r="I8">
+        <v>102.995</v>
+      </c>
+      <c r="J8">
+        <v>104.274</v>
+      </c>
+      <c r="K8">
+        <v>105.378</v>
+      </c>
+      <c r="L8">
+        <v>104.864</v>
+      </c>
+      <c r="M8">
+        <v>105.43299999999999</v>
+      </c>
+      <c r="N8">
+        <v>105.55799999999999</v>
+      </c>
+      <c r="O8">
+        <v>103.005</v>
+      </c>
+      <c r="P8">
+        <v>99.85</v>
+      </c>
+      <c r="Q8">
+        <v>105.38500000000001</v>
+      </c>
+      <c r="R8">
+        <v>104.273</v>
+      </c>
+      <c r="S8">
+        <v>103.51600000000001</v>
+      </c>
+      <c r="T8">
+        <v>103.47199999999999</v>
+      </c>
+      <c r="U8">
+        <v>103.57899999999999</v>
+      </c>
+      <c r="V8">
+        <v>103.453</v>
+      </c>
+      <c r="W8">
+        <v>103.23399999999999</v>
+      </c>
+      <c r="X8">
+        <v>103.761</v>
+      </c>
+      <c r="Y8">
+        <v>102.9</v>
+      </c>
+      <c r="Z8">
+        <v>102.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9">
+        <v>28.307499999999976</v>
+      </c>
+      <c r="H9">
+        <v>24.411666666666651</v>
+      </c>
+      <c r="K9">
+        <v>38.297499999999978</v>
+      </c>
+      <c r="L9">
+        <v>54.434166666666648</v>
+      </c>
+      <c r="M9">
+        <v>65.389999999999972</v>
+      </c>
+      <c r="N9">
+        <v>72.712499999999949</v>
+      </c>
+      <c r="O9">
+        <v>97.659999999999727</v>
+      </c>
+      <c r="P9">
+        <v>61.860580454999948</v>
+      </c>
+      <c r="Q9">
+        <v>79.631468724999948</v>
+      </c>
+      <c r="R9">
+        <v>110.95171106749949</v>
+      </c>
+      <c r="S9">
+        <v>111.959591543333</v>
+      </c>
+      <c r="T9">
+        <v>108.8438908666665</v>
+      </c>
+      <c r="U9">
+        <v>98.943297494999655</v>
+      </c>
+      <c r="V9">
+        <v>52.399418429999947</v>
+      </c>
+      <c r="W9">
+        <v>41.69177865612648</v>
+      </c>
+      <c r="X9">
+        <v>53.014087301587267</v>
+      </c>
+      <c r="Y9">
+        <v>69.608473414702573</v>
+      </c>
+      <c r="Z9">
+        <v>63.375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:50" ht="126" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:50" ht="93.5" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>48</v>
       </c>
@@ -6150,7 +6838,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1995</v>
       </c>
@@ -6238,7 +6926,7 @@
       <c r="AW2" s="3"/>
       <c r="AX2" s="3"/>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1996</v>
       </c>
@@ -6322,7 +7010,7 @@
       <c r="AW3" s="3"/>
       <c r="AX3" s="3"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>1997</v>
       </c>
@@ -6416,7 +7104,7 @@
       <c r="AW4" s="3"/>
       <c r="AX4" s="3"/>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>1998</v>
       </c>
@@ -6514,7 +7202,7 @@
       </c>
       <c r="AX5" s="3"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>1999</v>
       </c>
@@ -6616,7 +7304,7 @@
         <v>138.13622217648637</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>2000</v>
       </c>
@@ -6756,7 +7444,7 @@
         <v>154.78511348193362</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2001</v>
       </c>
@@ -6904,7 +7592,7 @@
         <v>145.75943902552854</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>2002</v>
       </c>
@@ -7056,7 +7744,7 @@
         <v>126.20239739048648</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>2003</v>
       </c>
@@ -7208,7 +7896,7 @@
         <v>118.74236893597994</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>2004</v>
       </c>
@@ -7360,7 +8048,7 @@
         <v>120.59961754384092</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>2005</v>
       </c>
@@ -7512,7 +8200,7 @@
         <v>123.55257373743636</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>2006</v>
       </c>
@@ -7664,7 +8352,7 @@
         <v>128.23938190027485</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>2007</v>
       </c>
@@ -7816,7 +8504,7 @@
         <v>120.06395956681931</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>2008</v>
       </c>
@@ -7968,7 +8656,7 @@
         <v>138.7088358556461</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>2009</v>
       </c>
@@ -8120,7 +8808,7 @@
         <v>94.68393815606413</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>2010</v>
       </c>
@@ -8272,7 +8960,7 @@
         <v>105.62257795838923</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>2011</v>
       </c>
@@ -8424,7 +9112,7 @@
         <v>108.37337439634194</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>2012</v>
       </c>
@@ -8576,7 +9264,7 @@
         <v>114.40972977095956</v>
       </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>2013</v>
       </c>
@@ -8728,7 +9416,7 @@
         <v>108.63726218359859</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>2014</v>
       </c>
@@ -8880,7 +9568,7 @@
         <v>106.2</v>
       </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>2015</v>
       </c>
@@ -9032,7 +9720,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>2016</v>
       </c>
@@ -9184,7 +9872,7 @@
         <v>106.1</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>2017</v>
       </c>
@@ -9336,7 +10024,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>2018</v>
       </c>
@@ -9488,7 +10176,7 @@
         <v>108.2</v>
       </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>2019</v>
       </c>
